--- a/播放器状态上报协议_v1.01.xlsx
+++ b/播放器状态上报协议_v1.01.xlsx
@@ -210,14 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type=play_buffer&amp;uuid=xxxxxxxx&amp;playurl=http%3a%2f%2fwww.baidu.com&amp;buffertime=1302</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type=play_drag&amp;uuid=xxxxxxxx&amp;playurl=http%3a%2f%2fwww.baidu.com&amp;dbuffertime=1102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>具体错误码播放器给出定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,6 +264,14 @@
   </si>
   <si>
     <t>type=play_finish&amp;uuid=xxxxxxxx&amp;playurl=http%3a%2f%2fwww.baidu.com&amp;datasize=3047594903&amp;datatime=294754</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type=play_drag&amp;uuid=xxxxxxxx&amp;playurl=http%3a%2f%2fwww.baidu.com&amp;dbuffertime=1102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type=play_buffer&amp;uuid=xxxxxxxx&amp;playurl=http%3a%2f%2fwww.baidu.com&amp;buffertime=1302</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,6 +673,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -682,6 +742,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -689,78 +761,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:D24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1097,76 +1097,76 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>58</v>
+      <c r="E2" s="29" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="30"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="31"/>
-      <c r="B4" s="39" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="41"/>
+      <c r="B5" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="25"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="31"/>
-      <c r="B5" s="39" t="s">
+      <c r="D5" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="43" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -1178,12 +1178,12 @@
       <c r="D7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>60</v>
+      <c r="E7" s="29" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
@@ -1193,10 +1193,10 @@
       <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
@@ -1204,12 +1204,12 @@
         <v>43</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="23"/>
+        <v>57</v>
+      </c>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
@@ -1219,10 +1219,10 @@
       <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="13" t="s">
         <v>10</v>
       </c>
@@ -1232,10 +1232,10 @@
       <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="13" t="s">
         <v>44</v>
       </c>
@@ -1245,10 +1245,10 @@
       <c r="D12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="23"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
@@ -1258,10 +1258,10 @@
       <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="23"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="13" t="s">
         <v>12</v>
       </c>
@@ -1269,10 +1269,10 @@
         <v>35</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="23"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="14" t="s">
         <v>13</v>
       </c>
@@ -1280,140 +1280,140 @@
         <v>36</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="24"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="40"/>
+      <c r="B17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="34"/>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="42"/>
+      <c r="B18" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="40"/>
+      <c r="B20" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="34"/>
+    </row>
+    <row r="21" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="42"/>
+      <c r="B21" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="40"/>
+      <c r="B23" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="42"/>
+      <c r="B24" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="28"/>
-    </row>
-    <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="28"/>
-    </row>
-    <row r="22" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="30"/>
-      <c r="B23" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="27"/>
-    </row>
-    <row r="24" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="28"/>
+      <c r="E24" s="35"/>
     </row>
     <row r="25" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="16" t="s">
-        <v>61</v>
+      <c r="A25" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>3</v>
@@ -1424,12 +1424,12 @@
       <c r="D25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="22" t="s">
-        <v>62</v>
+      <c r="E25" s="29" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="17"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="13" t="s">
         <v>5</v>
       </c>
@@ -1439,10 +1439,10 @@
       <c r="D26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="23"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="17"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="13" t="s">
         <v>18</v>
       </c>
@@ -1450,12 +1450,12 @@
         <v>41</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="23"/>
+        <v>49</v>
+      </c>
+      <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="14" t="s">
         <v>19</v>
       </c>
@@ -1465,22 +1465,22 @@
       <c r="D28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="24"/>
+      <c r="E28" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="E25:E28"/>
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="E7:E15"/>
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="E22:E24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/播放器状态上报协议_v1.01.xlsx
+++ b/播放器状态上报协议_v1.01.xlsx
@@ -46,26 +46,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最终播放URL获取耗时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据缓冲耗时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取最终URL后到开始播放的耗时，单位毫秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频码率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频总播放时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>视频编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,10 +82,6 @@
   </si>
   <si>
     <t>针对每个用户每次播放请求，播放器生成的唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位(kbit per second)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -122,39 +102,144 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>播放产生卡顿缓冲
+(play_buffer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放拖拽缓冲
+(play_drag)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放失败
+(play_fail)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上报字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playurl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffertime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbuffertime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errorcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datasize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datatime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频分辨率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体错误码播放器给出定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type=play_fail&amp;uuid=xxxxxxxx&amp;playurl=http%3a%2f%2fwww.baidu.com&amp;errorcode=-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放页面URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>referurl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用播放器的页面URL,提交URL时需要对URL进行URLEncode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type=playinit&amp;uuid=xxxxxxxxxx&amp;playurl=rtmp%3a%2f%2fwww.baidu.com&amp;playtime=103873034&amp;userip=172.16.4.5&amp;referurl=http%3a%2f%2fwww.baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括DNS解析时间，302跳转过程，单位毫秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type=play_start&amp;uuid=xxxxxxxx&amp;playurl=http%3a%2f%2fwww.baidu.com&amp;pretime=57&amp;fbuffertime=3790&amp;bitrate=2401&amp;resolution=1024-768&amp;duration=5930&amp;videoformat=AVC&amp;audioformat=AAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放完成
+(play_finish)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type=play_finish&amp;uuid=xxxxxxxx&amp;playurl=http%3a%2f%2fwww.baidu.com&amp;datasize=3047594903&amp;datatime=294754</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type=play_drag&amp;uuid=xxxxxxxx&amp;playurl=http%3a%2f%2fwww.baidu.com&amp;dbuffertime=1102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type=play_buffer&amp;uuid=xxxxxxxx&amp;playurl=http%3a%2f%2fwww.baidu.com&amp;buffertime=1302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>首次播放成功
 (play_start)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>播放产生卡顿缓冲
-(play_buffer)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放拖拽缓冲
-(play_drag)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放失败
-(play_fail)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上报字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>playurl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>playtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffertime</t>
+    <t>pretime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终播放URL获取耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbuffertime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取最终URL后到开始播放的耗时，单位毫秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频码率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -162,6 +247,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>resolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频总播放时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频的长宽，中间用-分隔，例如1024-768</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>videoformat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,108 +271,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fbuffertime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbuffertime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>errorcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datasize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datatime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pretime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频分辨率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resolution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频的长宽，中间用-分隔，例如1024-768</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体错误码播放器给出定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type=play_fail&amp;uuid=xxxxxxxx&amp;playurl=http%3a%2f%2fwww.baidu.com&amp;errorcode=-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位byte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放页面URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户的IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>referurl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用播放器的页面URL,提交URL时需要对URL进行URLEncode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type=playinit&amp;uuid=xxxxxxxxxx&amp;playurl=rtmp%3a%2f%2fwww.baidu.com&amp;playtime=103873034&amp;userip=172.16.4.5&amp;referurl=http%3a%2f%2fwww.baidu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括DNS解析时间，302跳转过程，单位毫秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type=play_start&amp;uuid=xxxxxxxx&amp;playurl=http%3a%2f%2fwww.baidu.com&amp;pretime=57&amp;fbuffertime=3790&amp;bitrate=2401&amp;resolution=1024-768&amp;duration=5930&amp;videoformat=AVC&amp;audioformat=AAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放完成
-(play_finish)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type=play_finish&amp;uuid=xxxxxxxx&amp;playurl=http%3a%2f%2fwww.baidu.com&amp;datasize=3047594903&amp;datatime=294754</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type=play_drag&amp;uuid=xxxxxxxx&amp;playurl=http%3a%2f%2fwww.baidu.com&amp;dbuffertime=1102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type=play_buffer&amp;uuid=xxxxxxxx&amp;playurl=http%3a%2f%2fwww.baidu.com&amp;buffertime=1302</t>
+    <t>单位(kbit per second)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,6 +712,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -732,36 +753,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1066,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1087,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -1097,8 +1088,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
-        <v>25</v>
+      <c r="A2" s="32" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>3</v>
@@ -1107,184 +1098,184 @@
         <v>3</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>56</v>
+        <v>16</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="30"/>
+        <v>17</v>
+      </c>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="41"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="39"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="34"/>
+      <c r="B5" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="39"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35"/>
+      <c r="B6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="33"/>
+      <c r="B8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="33"/>
+      <c r="B9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="D9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="37"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="33"/>
+      <c r="B10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="37"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="33"/>
+      <c r="B11" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="C11" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="32"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="41"/>
-      <c r="B5" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
-      <c r="B6" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="26" t="s">
+      <c r="D11" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="37"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="33"/>
+      <c r="B12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="31"/>
-    </row>
-    <row r="7" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="29" t="s">
+      <c r="C12" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
-      <c r="B8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="44"/>
-      <c r="B9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="E12" s="37"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="33"/>
+      <c r="B13" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="30"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="44"/>
-      <c r="B10" s="13" t="s">
+      <c r="C13" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="37"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="33"/>
+      <c r="B14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C14" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="37"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="35"/>
+      <c r="B15" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="30"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="44"/>
-      <c r="B11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C15" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="38"/>
+    </row>
+    <row r="16" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="32" t="s">
         <v>21</v>
-      </c>
-      <c r="E11" s="30"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="44"/>
-      <c r="B12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="30"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="44"/>
-      <c r="B13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="44"/>
-      <c r="B14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="31"/>
-    </row>
-    <row r="16" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="39" t="s">
-        <v>27</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>3</v>
@@ -1293,41 +1284,41 @@
         <v>3</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>62</v>
+        <v>16</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="40"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="34"/>
+        <v>17</v>
+      </c>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="35"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="39" t="s">
-        <v>28</v>
+      <c r="A19" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>3</v>
@@ -1336,41 +1327,41 @@
         <v>3</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>61</v>
+        <v>16</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="40"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="34"/>
+        <v>17</v>
+      </c>
+      <c r="E20" s="41"/>
     </row>
     <row r="21" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="35"/>
+      <c r="E21" s="42"/>
     </row>
     <row r="22" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="39" t="s">
-        <v>29</v>
+      <c r="A22" s="32" t="s">
+        <v>23</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>3</v>
@@ -1379,41 +1370,41 @@
         <v>3</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>48</v>
+        <v>16</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="40"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="34"/>
+        <v>17</v>
+      </c>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="35"/>
+        <v>33</v>
+      </c>
+      <c r="E24" s="42"/>
     </row>
     <row r="25" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="36" t="s">
-        <v>59</v>
+      <c r="A25" s="29" t="s">
+        <v>45</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>3</v>
@@ -1422,65 +1413,65 @@
         <v>3</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>60</v>
+        <v>16</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="37"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="37"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="30"/>
+      <c r="B27" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="37"/>
+    </row>
+    <row r="28" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="31"/>
+      <c r="B28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="30"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="37"/>
-      <c r="B27" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="30"/>
-    </row>
-    <row r="28" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="31"/>
+      <c r="E28" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="E7:E15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="E7:E15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/播放器状态上报协议_v1.01.xlsx
+++ b/播放器状态上报协议_v1.01.xlsx
@@ -279,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,16 +296,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -624,7 +614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -634,125 +624,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1057,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D10" sqref="A1:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1071,10 +1031,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -1088,390 +1048,390 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="33"/>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="37"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="39"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="38"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="33"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="37"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="37"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="33"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="33"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="37"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="33"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="33"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="37"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="33"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="37"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="38"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="27" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="33"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="41"/>
+      <c r="E17" s="28"/>
     </row>
     <row r="18" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="42"/>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="33"/>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="41"/>
+      <c r="E20" s="28"/>
     </row>
     <row r="21" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="42"/>
+      <c r="E21" s="29"/>
     </row>
     <row r="22" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="27" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="33"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="41"/>
+      <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="42"/>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="30"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="37"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="30"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="37"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="32"/>
+      <c r="B28" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="38"/>
+      <c r="E28" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="E25:E28"/>
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="E7:E15"/>
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="E22:E24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
